--- a/medicine/Soins infirmiers et profession infirmière/Hôpital_d'instruction_des_armées_Bégin/Hôpital_d'instruction_des_armées_Bégin.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Hôpital_d'instruction_des_armées_Bégin/Hôpital_d'instruction_des_armées_Bégin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_d%27instruction_des_arm%C3%A9es_B%C3%A9gin</t>
+          <t>Hôpital_d'instruction_des_armées_Bégin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'hôpital d'instruction des armées (HIA) Bégin est un hôpital militaire situé au 69, avenue de Paris à Saint-Mandé dans le Val-de-Marne, près de Paris. Il porte le nom de Louis Jacques Bégin (1793-1859), chirurgien militaire de l'Empire.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_d%27instruction_des_arm%C3%A9es_B%C3%A9gin</t>
+          <t>Hôpital_d'instruction_des_armées_Bégin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,18 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet établissement de santé résulte d'un décret de Napoléon III du 21 avril 1855 pour recevoir les blessés et invalides de la guerre de Crimée. Il supplée alors l'insuffisance des hôpitaux militaires parisiens du Val-de-Grâce et du Gros-Caillou qui avaient des difficultés à accueillir tous les blessés. L'hôpital est inauguré le 31 mai 1858 sous le nom d'hôpital militaire de Vincennes[1]. Il est construit sur l'ancien site de la ménagerie royale du château de Vincennes[2], selon les plans symétriques en forme de fer à cheval du lieutenant-colonel Livet et du capitaine du génie Merland, avec cour d'honneur et bassin, et l'hôpital est encadré de jardins.
-Pour l'anecdote, l'Impératrice Eugénie, épouse de Napoléon III, lors d'une promenade équestre dans le bois de Vincennes aperçoit une statue de la Vierge honorée par les femmes désirant un enfant, Notre-dame-de-Lorette. Elle descend de cheval et prie la Vierge car elle avait déjà fait deux fausses couches. Quelques mois plus tard, le 16 mars 1856 naissait un fils, qui sera leur fils unique, le prince Napoléon Eugène Louis. Pour sa naissance, une petite chapelle de style roman est alors bâtie dans le parc de l'hôpital en construction et la statue de la Vierge y est déposée[3]. Elle est toujours visible et entretenue au nord-ouest du parc de l'hôpital. Sur le fronton de l'hôpital Bégin est sculpté - en souvenir de cette naissance impériale - un berceau orné d'un aigle, symbole de Napoléon.
-Le 31 mars 1900, l'établissement prend le nom d'hôpital militaire Bégin, en hommage au chirurgien militaire Louis Jacques Bégin (1793-1859)[4]. Durant les années 1910 à 1912 est édifié un quartier des contagieux : trois pavillons pour les malades et un pour loger les infirmiers. Situés au nord-est du parc, éloignés des bâtiments principaux ils sont séparés par un mur de clôture. Après la guerre, en 1920, les capacités d'hospitalisation passent de 950 à 600 lits. En 1946 les pavillons des contagieux sont désinfectés et par décision ministérielle, le 21 janvier 1947, le ministre de la Guerre décide l'implantation dans ces lieux d'un service de maternité. En 1964, un vaste bâtiment moderne en forme de croix est construit au sud de l'hôpital par l'architecte Laborie. Il est inauguré le 29 octobre 1970 par Michel Debré, alors ministre d'État chargé de la Défense nationale.
-Modernisation
-Depuis 2002, l'établissement connaît une profonde mutation architecturale et fait l'objet d'importants travaux de rénovation et de modernisation, en répondant à un projet médical axé sur l'optimisation de la performance des services et la mise en conformité du bâtiment avec les normes actuelles (incendie, développement durable)[5].
-Les travaux étaient prévus en trois phases, jusqu'en 2013 :
-1re phase : construction de la nouvelle aile Sud, regroupant les services des urgences, de l'imagerie médicale, le plateau de consultations externes (comprenant notamment les spécialités de gynécologie, cardiologie, exploration digestive, ORL et ophtalmologie), le plateau des laboratoires de biologie médicale et de pathologie, le service des maladies infectieuses et tropicales, le service de cardiologie et la pharmacie hospitalière[6] ;
-2e phase : aménagement de l'aile Ouest, et destruction de l'aile Nord[7] ;
-3e phase : restructuration de l'aile Est.
-À la suite de ces travaux, l'hôpital passe à une capacité de 360 lits[8], dont 20 lits pour l'hospitalisation ambulatoire (hôpital de jour). Plus de 80 % des chambres seront individuelles et équipées d'un cabinet de toilette.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet établissement de santé résulte d'un décret de Napoléon III du 21 avril 1855 pour recevoir les blessés et invalides de la guerre de Crimée. Il supplée alors l'insuffisance des hôpitaux militaires parisiens du Val-de-Grâce et du Gros-Caillou qui avaient des difficultés à accueillir tous les blessés. L'hôpital est inauguré le 31 mai 1858 sous le nom d'hôpital militaire de Vincennes. Il est construit sur l'ancien site de la ménagerie royale du château de Vincennes, selon les plans symétriques en forme de fer à cheval du lieutenant-colonel Livet et du capitaine du génie Merland, avec cour d'honneur et bassin, et l'hôpital est encadré de jardins.
+Pour l'anecdote, l'Impératrice Eugénie, épouse de Napoléon III, lors d'une promenade équestre dans le bois de Vincennes aperçoit une statue de la Vierge honorée par les femmes désirant un enfant, Notre-dame-de-Lorette. Elle descend de cheval et prie la Vierge car elle avait déjà fait deux fausses couches. Quelques mois plus tard, le 16 mars 1856 naissait un fils, qui sera leur fils unique, le prince Napoléon Eugène Louis. Pour sa naissance, une petite chapelle de style roman est alors bâtie dans le parc de l'hôpital en construction et la statue de la Vierge y est déposée. Elle est toujours visible et entretenue au nord-ouest du parc de l'hôpital. Sur le fronton de l'hôpital Bégin est sculpté - en souvenir de cette naissance impériale - un berceau orné d'un aigle, symbole de Napoléon.
+Le 31 mars 1900, l'établissement prend le nom d'hôpital militaire Bégin, en hommage au chirurgien militaire Louis Jacques Bégin (1793-1859). Durant les années 1910 à 1912 est édifié un quartier des contagieux : trois pavillons pour les malades et un pour loger les infirmiers. Situés au nord-est du parc, éloignés des bâtiments principaux ils sont séparés par un mur de clôture. Après la guerre, en 1920, les capacités d'hospitalisation passent de 950 à 600 lits. En 1946 les pavillons des contagieux sont désinfectés et par décision ministérielle, le 21 janvier 1947, le ministre de la Guerre décide l'implantation dans ces lieux d'un service de maternité. En 1964, un vaste bâtiment moderne en forme de croix est construit au sud de l'hôpital par l'architecte Laborie. Il est inauguré le 29 octobre 1970 par Michel Debré, alors ministre d'État chargé de la Défense nationale.
 </t>
         </is>
       </c>
@@ -534,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_d%27instruction_des_arm%C3%A9es_B%C3%A9gin</t>
+          <t>Hôpital_d'instruction_des_armées_Bégin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,31 +556,144 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Modernisation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2002, l'établissement connaît une profonde mutation architecturale et fait l'objet d'importants travaux de rénovation et de modernisation, en répondant à un projet médical axé sur l'optimisation de la performance des services et la mise en conformité du bâtiment avec les normes actuelles (incendie, développement durable).
+Les travaux étaient prévus en trois phases, jusqu'en 2013 :
+1re phase : construction de la nouvelle aile Sud, regroupant les services des urgences, de l'imagerie médicale, le plateau de consultations externes (comprenant notamment les spécialités de gynécologie, cardiologie, exploration digestive, ORL et ophtalmologie), le plateau des laboratoires de biologie médicale et de pathologie, le service des maladies infectieuses et tropicales, le service de cardiologie et la pharmacie hospitalière ;
+2e phase : aménagement de l'aile Ouest, et destruction de l'aile Nord ;
+3e phase : restructuration de l'aile Est.
+À la suite de ces travaux, l'hôpital passe à une capacité de 360 lits, dont 20 lits pour l'hospitalisation ambulatoire (hôpital de jour). Plus de 80 % des chambres seront individuelles et équipées d'un cabinet de toilette.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hôpital_d'instruction_des_armées_Bégin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_d%27instruction_des_arm%C3%A9es_B%C3%A9gin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'hôpital Bégin est géré par le Service de santé des armées et accueille à ce titre prioritairement le personnel militaire, mais participe également au service public hospitalier, puisqu'il est ouvert à tous les assurés sociaux (civils). En 2011, 80 % des patients sont des civils qui l'ont choisi pour des consultations ou des hospitalisations. Il est considéré comme un hôpital de proximité, grâce notamment à son service d'accueil et d'urgence ouvert 24 heures sur 24 pour les populations de Vincennes, Saint Mandé, Montreuil, Nogent-sur-Marne et la proche banlieue parisienne[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital Bégin est géré par le Service de santé des armées et accueille à ce titre prioritairement le personnel militaire, mais participe également au service public hospitalier, puisqu'il est ouvert à tous les assurés sociaux (civils). En 2011, 80 % des patients sont des civils qui l'ont choisi pour des consultations ou des hospitalisations. Il est considéré comme un hôpital de proximité, grâce notamment à son service d'accueil et d'urgence ouvert 24 heures sur 24 pour les populations de Vincennes, Saint Mandé, Montreuil, Nogent-sur-Marne et la proche banlieue parisienne.
 D'une capacité actuelle de 301 lits, l'hôpital est spécialisé dans la chirurgie orthopédique, la cardiologie, et l'endocrinologie. L'hôpital emploie 1 000 personnes, dont 100 médecins.
-Le 19 septembre 2014, l'hôpital accueille en chambre de confinement (avec une équipe soignante dédiée) le tout premier patient — une infirmière de nationalité française travaillant pour MSF au Liberia rapatriée par vol spécial — infectée par le virus Ebola durant l'épidémie qui sévit en Afrique de l'Ouest[9].
-Jusqu'au 30 juin 2015, l'hôpital disposait d'un service « maternité » de seize lits[10], ce qui était une spécificité pour un hôpital militaire. Sa fermeture a permis le transfert des services d'urologie, d'ophtalmologie et de chirurgie viscérale de l'hôpital du Val-de-Grâce[11],[12].
-Activités générales
-Clinique médicale polyvalente
+Le 19 septembre 2014, l'hôpital accueille en chambre de confinement (avec une équipe soignante dédiée) le tout premier patient — une infirmière de nationalité française travaillant pour MSF au Liberia rapatriée par vol spécial — infectée par le virus Ebola durant l'épidémie qui sévit en Afrique de l'Ouest.
+Jusqu'au 30 juin 2015, l'hôpital disposait d'un service « maternité » de seize lits, ce qui était une spécificité pour un hôpital militaire. Sa fermeture a permis le transfert des services d'urologie, d'ophtalmologie et de chirurgie viscérale de l'hôpital du Val-de-Grâce,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hôpital_d'instruction_des_armées_Bégin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_d%27instruction_des_arm%C3%A9es_B%C3%A9gin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Activités</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Activités générales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Clinique médicale polyvalente
 Fédération anesthésie-réanimation-urgences
 Fédération de biologie médicale et de pathologie
 Fédération cardiologie-diabétologie-endocrinologie
 Fédération de chirurgie osseuse et réparatrice (orthopédie-traumatologie, maxillo-faciale-stomatologie)
 Fédération médico-chirurgicale digestive et vasculaire (chirurgie viscérale et vasculaire, hépato-gastro-entérologie, endoscopie digestive et interventionnelle)
 Fédération des spécialités médicales (dermatologie-allergologie, maladies infectieuses et tropicales, rhumatologie-podologie et ostéodensitométrie)
-Gynécologie-maternité (jusqu'en juin 2015[11])-pédiatrie
+Gynécologie-maternité (jusqu'en juin 2015)-pédiatrie
 Imagerie médicale (IRM, scanner, mammographie, échographie)
 Odontologie-parodontologie (cabinet dentaire)
 Ophtalmologie-ORL (consultations)
 Pharmacie à usage intérieur
-Psychiatrie
-Spécificités
-Gynécologie - maladie du sein[13].
+Psychiatrie</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hôpital_d'instruction_des_armées_Bégin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_d%27instruction_des_arm%C3%A9es_B%C3%A9gin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Activités</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Spécificités</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Gynécologie - maladie du sein.
 Service d'accueil et d'urgence 24 heures sur 24
 Chirurgie articulaire et prothèses
 Prise en charge des maladies cardiaques du diabète et troubles de la thyroïde
